--- a/App2/acs/csv/ACS_climate.xlsx
+++ b/App2/acs/csv/ACS_climate.xlsx
@@ -31,7 +31,7 @@
     <t xml:space="preserve">Date : </t>
   </si>
   <si>
-    <t>2018-07-09T16:45:53.160570</t>
+    <t>2018-07-10T14:03:31.641540</t>
   </si>
 </sst>
 </file>

--- a/App2/acs/csv/ACS_climate.xlsx
+++ b/App2/acs/csv/ACS_climate.xlsx
@@ -31,7 +31,7 @@
     <t xml:space="preserve">Date : </t>
   </si>
   <si>
-    <t>2018-07-10T14:03:31.641540</t>
+    <t>2018-07-16T09:09:36.412845</t>
   </si>
 </sst>
 </file>
